--- a/projects/tRNAseq_third-gen/data/BC_split/sample_stats.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/sample_stats.xlsx
@@ -825,19 +825,19 @@
         <v>771</v>
       </c>
       <c r="S2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="T2">
         <v>34</v>
       </c>
       <c r="U2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="V2">
-        <v>99.3514915693904</v>
+        <v>99.48119325551232</v>
       </c>
       <c r="W2">
-        <v>4.43864229765013</v>
+        <v>4.432855280312908</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -896,10 +896,10 @@
         <v>888</v>
       </c>
       <c r="S3">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="T3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U3">
         <v>882</v>
@@ -908,7 +908,7 @@
         <v>99.32432432432432</v>
       </c>
       <c r="W3">
-        <v>3.287981859410431</v>
+        <v>3.174603174603174</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -964,7 +964,7 @@
         <v>105</v>
       </c>
       <c r="R4">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S4">
         <v>134</v>
@@ -976,7 +976,7 @@
         <v>137</v>
       </c>
       <c r="V4">
-        <v>100</v>
+        <v>99.27536231884058</v>
       </c>
       <c r="W4">
         <v>2.18978102189781</v>
@@ -1035,22 +1035,22 @@
         <v>105</v>
       </c>
       <c r="R5">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="S5">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="T5">
         <v>9</v>
       </c>
       <c r="U5">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="V5">
-        <v>99.20993227990971</v>
+        <v>99.2090395480226</v>
       </c>
       <c r="W5">
-        <v>1.023890784982935</v>
+        <v>1.025056947608201</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1177,22 +1177,22 @@
         <v>105</v>
       </c>
       <c r="R7">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="S7">
         <v>172</v>
       </c>
       <c r="T7">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="U7">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="V7">
-        <v>98.64314789687924</v>
+        <v>98.78048780487805</v>
       </c>
       <c r="W7">
-        <v>76.34112792297113</v>
+        <v>76.40603566529492</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1248,22 +1248,22 @@
         <v>105</v>
       </c>
       <c r="R8">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="S8">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T8">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="U8">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="V8">
-        <v>99.22566371681415</v>
+        <v>99.22651933701657</v>
       </c>
       <c r="W8">
-        <v>55.40691192865106</v>
+        <v>55.56792873051225</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1325,16 +1325,16 @@
         <v>1189</v>
       </c>
       <c r="T9">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="U9">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="V9">
-        <v>99.00935608145295</v>
+        <v>99.06439185470556</v>
       </c>
       <c r="W9">
-        <v>33.90772651473041</v>
+        <v>33.94444444444444</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1390,22 +1390,22 @@
         <v>105</v>
       </c>
       <c r="R10">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="S10">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="T10">
         <v>274</v>
       </c>
       <c r="U10">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="V10">
-        <v>98.78892733564014</v>
+        <v>98.79310344827587</v>
       </c>
       <c r="W10">
-        <v>47.98598949211909</v>
+        <v>47.81849912739965</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1461,22 +1461,22 @@
         <v>105</v>
       </c>
       <c r="R11">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="S11">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="T11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="U11">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="V11">
-        <v>99.20844327176781</v>
+        <v>99.3421052631579</v>
       </c>
       <c r="W11">
-        <v>27.39361702127659</v>
+        <v>27.54966887417218</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1532,22 +1532,22 @@
         <v>105</v>
       </c>
       <c r="R12">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="S12">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="T12">
         <v>210</v>
       </c>
       <c r="U12">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="V12">
-        <v>99.57983193277312</v>
+        <v>99.58041958041957</v>
       </c>
       <c r="W12">
-        <v>29.53586497890295</v>
+        <v>29.49438202247191</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1677,10 +1677,10 @@
         <v>579</v>
       </c>
       <c r="S14">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T14">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="U14">
         <v>572</v>
@@ -1689,7 +1689,7 @@
         <v>98.79101899827289</v>
       </c>
       <c r="W14">
-        <v>47.9020979020979</v>
+        <v>48.07692307692308</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1958,22 +1958,22 @@
         <v>106</v>
       </c>
       <c r="R18">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="S18">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="T18">
         <v>34</v>
       </c>
       <c r="U18">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="V18">
-        <v>99.22380336351875</v>
+        <v>99.48320413436691</v>
       </c>
       <c r="W18">
-        <v>4.432855280312908</v>
+        <v>4.415584415584416</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2029,22 +2029,22 @@
         <v>106</v>
       </c>
       <c r="R19">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="S19">
         <v>853</v>
       </c>
       <c r="T19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U19">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="V19">
-        <v>99.32356257046223</v>
+        <v>99.32432432432432</v>
       </c>
       <c r="W19">
-        <v>3.178206583427923</v>
+        <v>3.287981859410431</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2100,22 +2100,22 @@
         <v>106</v>
       </c>
       <c r="R20">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="S20">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T20">
         <v>3</v>
       </c>
       <c r="U20">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V20">
-        <v>99.27536231884058</v>
+        <v>100</v>
       </c>
       <c r="W20">
-        <v>2.18978102189781</v>
+        <v>2.205882352941177</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2171,22 +2171,22 @@
         <v>106</v>
       </c>
       <c r="R21">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="S21">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="T21">
         <v>9</v>
       </c>
       <c r="U21">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="V21">
-        <v>99.20993227990971</v>
+        <v>99.32356257046223</v>
       </c>
       <c r="W21">
-        <v>1.023890784982935</v>
+        <v>1.021566401816118</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2242,22 +2242,22 @@
         <v>106</v>
       </c>
       <c r="R22">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="S22">
         <v>35</v>
       </c>
       <c r="T22">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="U22">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="V22">
-        <v>98.75518672199171</v>
+        <v>98.75690607734806</v>
       </c>
       <c r="W22">
-        <v>95.09803921568627</v>
+        <v>95.10489510489511</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2319,16 +2319,16 @@
         <v>172</v>
       </c>
       <c r="T23">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U23">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="V23">
-        <v>98.78048780487805</v>
+        <v>98.6449864498645</v>
       </c>
       <c r="W23">
-        <v>76.40603566529492</v>
+        <v>76.37362637362637</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2387,10 +2387,10 @@
         <v>905</v>
       </c>
       <c r="S24">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T24">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="U24">
         <v>897</v>
@@ -2399,7 +2399,7 @@
         <v>99.11602209944751</v>
       </c>
       <c r="W24">
-        <v>55.40691192865106</v>
+        <v>55.51839464882943</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2455,22 +2455,22 @@
         <v>106</v>
       </c>
       <c r="R25">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="S25">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="T25">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U25">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="V25">
-        <v>99.01098901098902</v>
+        <v>99.06439185470556</v>
       </c>
       <c r="W25">
-        <v>33.90677025527192</v>
+        <v>33.88888888888889</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2597,22 +2597,22 @@
         <v>107</v>
       </c>
       <c r="R27">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="S27">
         <v>172</v>
       </c>
       <c r="T27">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="U27">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="V27">
-        <v>98.7788331071913</v>
+        <v>98.64864864864865</v>
       </c>
       <c r="W27">
-        <v>76.37362637362637</v>
+        <v>76.43835616438356</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2671,19 +2671,19 @@
         <v>905</v>
       </c>
       <c r="S28">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T28">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="U28">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="V28">
-        <v>99.11602209944751</v>
+        <v>99.22651933701657</v>
       </c>
       <c r="W28">
-        <v>55.40691192865106</v>
+        <v>55.56792873051225</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2739,22 +2739,22 @@
         <v>107</v>
       </c>
       <c r="R29">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="S29">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="T29">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="U29">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="V29">
-        <v>99.00990099009901</v>
+        <v>99.06593406593407</v>
       </c>
       <c r="W29">
-        <v>33.88888888888889</v>
+        <v>33.94342762063228</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2810,22 +2810,22 @@
         <v>107</v>
       </c>
       <c r="R30">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="S30">
         <v>298</v>
       </c>
       <c r="T30">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="U30">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="V30">
-        <v>98.79101899827289</v>
+        <v>98.79310344827587</v>
       </c>
       <c r="W30">
-        <v>47.9020979020979</v>
+        <v>47.99301919720768</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2881,22 +2881,22 @@
         <v>107</v>
       </c>
       <c r="R31">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="S31">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="T31">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U31">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="V31">
-        <v>99.20844327176781</v>
+        <v>99.3421052631579</v>
       </c>
       <c r="W31">
-        <v>27.39361702127659</v>
+        <v>27.41721854304636</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3097,19 +3097,19 @@
         <v>773</v>
       </c>
       <c r="S34">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="T34">
         <v>34</v>
       </c>
       <c r="U34">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="V34">
-        <v>99.22380336351875</v>
+        <v>99.48253557567918</v>
       </c>
       <c r="W34">
-        <v>4.432855280312908</v>
+        <v>4.421326397919375</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3165,22 +3165,22 @@
         <v>107</v>
       </c>
       <c r="R35">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="S35">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="T35">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U35">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="V35">
-        <v>99.32356257046223</v>
+        <v>99.32584269662922</v>
       </c>
       <c r="W35">
-        <v>3.178206583427923</v>
+        <v>3.28054298642534</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3236,22 +3236,22 @@
         <v>107</v>
       </c>
       <c r="R36">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="S36">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V36">
-        <v>99.27536231884058</v>
+        <v>100</v>
       </c>
       <c r="W36">
-        <v>2.18978102189781</v>
+        <v>2.205882352941177</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3307,22 +3307,22 @@
         <v>107</v>
       </c>
       <c r="R37">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="S37">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="T37">
         <v>9</v>
       </c>
       <c r="U37">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="V37">
-        <v>99.20993227990971</v>
+        <v>99.2108229988726</v>
       </c>
       <c r="W37">
-        <v>1.023890784982935</v>
+        <v>1.022727272727273</v>
       </c>
     </row>
   </sheetData>

--- a/projects/tRNAseq_third-gen/data/BC_split/sample_stats.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/sample_stats.xlsx
@@ -85,111 +85,111 @@
     <t>100p1</t>
   </si>
   <si>
+    <t>100p2</t>
+  </si>
+  <si>
+    <t>100p3</t>
+  </si>
+  <si>
     <t>100p4</t>
   </si>
   <si>
+    <t>85p1</t>
+  </si>
+  <si>
+    <t>85p2</t>
+  </si>
+  <si>
     <t>85p3</t>
   </si>
   <si>
+    <t>85p4</t>
+  </si>
+  <si>
+    <t>70p1</t>
+  </si>
+  <si>
     <t>70p2</t>
   </si>
   <si>
+    <t>70p3</t>
+  </si>
+  <si>
+    <t>70p4</t>
+  </si>
+  <si>
+    <t>55p1</t>
+  </si>
+  <si>
+    <t>55p2</t>
+  </si>
+  <si>
     <t>55p3</t>
   </si>
   <si>
+    <t>55p4</t>
+  </si>
+  <si>
+    <t>40p1</t>
+  </si>
+  <si>
     <t>40p2</t>
   </si>
   <si>
+    <t>40p3</t>
+  </si>
+  <si>
+    <t>40p4</t>
+  </si>
+  <si>
     <t>25p1</t>
   </si>
   <si>
+    <t>25p2</t>
+  </si>
+  <si>
+    <t>25p3</t>
+  </si>
+  <si>
     <t>25p4</t>
   </si>
   <si>
+    <t>10p1</t>
+  </si>
+  <si>
     <t>10p2</t>
   </si>
   <si>
+    <t>10p3</t>
+  </si>
+  <si>
+    <t>10p4</t>
+  </si>
+  <si>
     <t>0p1</t>
   </si>
   <si>
+    <t>0p2</t>
+  </si>
+  <si>
+    <t>0p3</t>
+  </si>
+  <si>
     <t>0p4</t>
   </si>
   <si>
+    <t>0p_90m1</t>
+  </si>
+  <si>
+    <t>0p_90m2</t>
+  </si>
+  <si>
     <t>0p_90m3</t>
   </si>
   <si>
-    <t>100p2</t>
-  </si>
-  <si>
-    <t>85p1</t>
-  </si>
-  <si>
-    <t>85p4</t>
-  </si>
-  <si>
-    <t>70p3</t>
-  </si>
-  <si>
-    <t>55p1</t>
-  </si>
-  <si>
-    <t>55p4</t>
-  </si>
-  <si>
-    <t>40p3</t>
-  </si>
-  <si>
-    <t>25p2</t>
-  </si>
-  <si>
-    <t>10p3</t>
-  </si>
-  <si>
-    <t>0p2</t>
-  </si>
-  <si>
-    <t>0p_90m1</t>
-  </si>
-  <si>
     <t>0p_90m4</t>
   </si>
   <si>
-    <t>100p3</t>
-  </si>
-  <si>
-    <t>85p2</t>
-  </si>
-  <si>
-    <t>70p1</t>
-  </si>
-  <si>
-    <t>70p4</t>
-  </si>
-  <si>
-    <t>55p2</t>
-  </si>
-  <si>
-    <t>40p1</t>
-  </si>
-  <si>
-    <t>40p4</t>
-  </si>
-  <si>
-    <t>25p3</t>
-  </si>
-  <si>
-    <t>10p1</t>
-  </si>
-  <si>
-    <t>10p4</t>
-  </si>
-  <si>
-    <t>0p3</t>
-  </si>
-  <si>
-    <t>0p_90m2</t>
-  </si>
-  <si>
     <t>100p</t>
   </si>
   <si>
@@ -232,39 +232,39 @@
     <t>l1Sp</t>
   </si>
   <si>
+    <t>l2Sp</t>
+  </si>
+  <si>
+    <t>l3Sp</t>
+  </si>
+  <si>
     <t>l4Sp</t>
   </si>
   <si>
+    <t>l5Sp</t>
+  </si>
+  <si>
+    <t>l6Sp</t>
+  </si>
+  <si>
     <t>l7Sp</t>
   </si>
   <si>
+    <t>l8Sp</t>
+  </si>
+  <si>
+    <t>l9Sp</t>
+  </si>
+  <si>
     <t>l10Sp</t>
   </si>
   <si>
-    <t>l3Sp</t>
-  </si>
-  <si>
-    <t>l6Sp</t>
-  </si>
-  <si>
-    <t>l9Sp</t>
+    <t>l11Sp</t>
   </si>
   <si>
     <t>l12Sp</t>
   </si>
   <si>
-    <t>l2Sp</t>
-  </si>
-  <si>
-    <t>l5Sp</t>
-  </si>
-  <si>
-    <t>l8Sp</t>
-  </si>
-  <si>
-    <t>l11Sp</t>
-  </si>
-  <si>
     <t>human</t>
   </si>
   <si>
@@ -289,37 +289,37 @@
     <t>GGCTGCCATGCGACTA</t>
   </si>
   <si>
+    <t>GGCTGCCATGCAAGTGC</t>
+  </si>
+  <si>
+    <t>GGCTGCCATGCTGTCACG</t>
+  </si>
+  <si>
     <t>GGCTGCCATGCAACCTGAT</t>
   </si>
   <si>
+    <t>GGCTGCCATGCTGCGA</t>
+  </si>
+  <si>
+    <t>GGCTGCCATGCAAGCTG</t>
+  </si>
+  <si>
     <t>GGCTGCCATGCTGGTGAC</t>
   </si>
   <si>
+    <t>GGCTGCCATGCAACGCATC</t>
+  </si>
+  <si>
+    <t>GGCTGCCATGCTACAG</t>
+  </si>
+  <si>
     <t>GGCTGCCATGCACATGA</t>
   </si>
   <si>
-    <t>GGCTGCCATGCTGTCACG</t>
-  </si>
-  <si>
-    <t>GGCTGCCATGCAAGCTG</t>
-  </si>
-  <si>
-    <t>GGCTGCCATGCTACAG</t>
+    <t>GGCTGCCATGCTGCGATA</t>
   </si>
   <si>
     <t>GGCTGCCATGCAACGTACA</t>
-  </si>
-  <si>
-    <t>GGCTGCCATGCAAGTGC</t>
-  </si>
-  <si>
-    <t>GGCTGCCATGCTGCGA</t>
-  </si>
-  <si>
-    <t>GGCTGCCATGCAACGCATC</t>
-  </si>
-  <si>
-    <t>GGCTGCCATGCTGCGATA</t>
   </si>
   <si>
     <t>P1_R1_DSA-10k.fastq.bz2</t>
@@ -822,22 +822,22 @@
         <v>105</v>
       </c>
       <c r="R2">
-        <v>771</v>
+        <v>966</v>
       </c>
       <c r="S2">
-        <v>733</v>
+        <v>38</v>
       </c>
       <c r="T2">
-        <v>34</v>
+        <v>925</v>
       </c>
       <c r="U2">
-        <v>767</v>
+        <v>963</v>
       </c>
       <c r="V2">
-        <v>99.48119325551232</v>
+        <v>99.68944099378882</v>
       </c>
       <c r="W2">
-        <v>4.432855280312908</v>
+        <v>96.0539979231568</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -851,13 +851,13 @@
         <v>58</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
         <v>72</v>
@@ -881,34 +881,34 @@
         <v>86</v>
       </c>
       <c r="N3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O3" t="s">
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R3">
-        <v>888</v>
+        <v>680</v>
       </c>
       <c r="S3">
-        <v>854</v>
+        <v>14</v>
       </c>
       <c r="T3">
-        <v>28</v>
+        <v>656</v>
       </c>
       <c r="U3">
-        <v>882</v>
+        <v>670</v>
       </c>
       <c r="V3">
-        <v>99.32432432432432</v>
+        <v>98.52941176470588</v>
       </c>
       <c r="W3">
-        <v>3.174603174603174</v>
+        <v>97.91044776119404</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -919,7 +919,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -928,7 +928,7 @@
         <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
         <v>73</v>
@@ -943,43 +943,43 @@
         <v>85</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" t="s">
         <v>86</v>
       </c>
       <c r="N4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O4" t="s">
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="R4">
-        <v>138</v>
+        <v>723</v>
       </c>
       <c r="S4">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>679</v>
       </c>
       <c r="U4">
-        <v>137</v>
+        <v>714</v>
       </c>
       <c r="V4">
-        <v>99.27536231884058</v>
+        <v>98.75518672199171</v>
       </c>
       <c r="W4">
-        <v>2.18978102189781</v>
+        <v>95.09803921568627</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -990,10 +990,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>67</v>
@@ -1014,10 +1014,10 @@
         <v>85</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" t="s">
         <v>86</v>
@@ -1035,22 +1035,22 @@
         <v>105</v>
       </c>
       <c r="R5">
-        <v>885</v>
+        <v>615</v>
       </c>
       <c r="S5">
-        <v>869</v>
+        <v>63</v>
       </c>
       <c r="T5">
-        <v>9</v>
+        <v>547</v>
       </c>
       <c r="U5">
-        <v>878</v>
+        <v>610</v>
       </c>
       <c r="V5">
-        <v>99.2090395480226</v>
+        <v>99.1869918699187</v>
       </c>
       <c r="W5">
-        <v>1.025056947608201</v>
+        <v>89.67213114754098</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1061,16 +1061,16 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
         <v>75</v>
@@ -1085,43 +1085,43 @@
         <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6" t="s">
         <v>86</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R6">
-        <v>723</v>
+        <v>752</v>
       </c>
       <c r="S6">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="T6">
-        <v>679</v>
+        <v>545</v>
       </c>
       <c r="U6">
-        <v>714</v>
+        <v>743</v>
       </c>
       <c r="V6">
-        <v>98.75518672199171</v>
+        <v>98.80319148936169</v>
       </c>
       <c r="W6">
-        <v>95.09803921568627</v>
+        <v>73.35127860026918</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1132,7 +1132,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1141,7 +1141,7 @@
         <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
         <v>76</v>
@@ -1156,43 +1156,43 @@
         <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7" t="s">
         <v>86</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="R7">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="S7">
         <v>172</v>
       </c>
       <c r="T7">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U7">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="V7">
-        <v>98.78048780487805</v>
+        <v>98.51150202976996</v>
       </c>
       <c r="W7">
-        <v>76.40603566529492</v>
+        <v>76.37362637362637</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1203,10 +1203,10 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>67</v>
@@ -1227,10 +1227,10 @@
         <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M8" t="s">
         <v>86</v>
@@ -1248,22 +1248,22 @@
         <v>105</v>
       </c>
       <c r="R8">
-        <v>905</v>
+        <v>199</v>
       </c>
       <c r="S8">
-        <v>399</v>
+        <v>37</v>
       </c>
       <c r="T8">
-        <v>499</v>
+        <v>162</v>
       </c>
       <c r="U8">
-        <v>898</v>
+        <v>199</v>
       </c>
       <c r="V8">
-        <v>99.22651933701657</v>
+        <v>100</v>
       </c>
       <c r="W8">
-        <v>55.56792873051225</v>
+        <v>81.4070351758794</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1274,7 +1274,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1283,7 +1283,7 @@
         <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
         <v>78</v>
@@ -1298,43 +1298,43 @@
         <v>85</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M9" t="s">
         <v>86</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O9" t="s">
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R9">
-        <v>1817</v>
+        <v>771</v>
       </c>
       <c r="S9">
-        <v>1189</v>
+        <v>177</v>
       </c>
       <c r="T9">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="U9">
-        <v>1800</v>
+        <v>769</v>
       </c>
       <c r="V9">
-        <v>99.06439185470556</v>
+        <v>99.74059662775616</v>
       </c>
       <c r="W9">
-        <v>33.94444444444444</v>
+        <v>76.98309492847855</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1345,16 +1345,16 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
         <v>79</v>
@@ -1369,43 +1369,43 @@
         <v>85</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M10" t="s">
         <v>86</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O10" t="s">
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="R10">
-        <v>580</v>
+        <v>905</v>
       </c>
       <c r="S10">
-        <v>299</v>
+        <v>399</v>
       </c>
       <c r="T10">
-        <v>274</v>
+        <v>498</v>
       </c>
       <c r="U10">
-        <v>573</v>
+        <v>897</v>
       </c>
       <c r="V10">
-        <v>98.79310344827587</v>
+        <v>99.11602209944751</v>
       </c>
       <c r="W10">
-        <v>47.81849912739965</v>
+        <v>55.51839464882943</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1416,10 +1416,10 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
@@ -1440,10 +1440,10 @@
         <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M11" t="s">
         <v>86</v>
@@ -1461,22 +1461,22 @@
         <v>105</v>
       </c>
       <c r="R11">
-        <v>760</v>
+        <v>1914</v>
       </c>
       <c r="S11">
-        <v>547</v>
+        <v>1190</v>
       </c>
       <c r="T11">
-        <v>208</v>
+        <v>702</v>
       </c>
       <c r="U11">
-        <v>755</v>
+        <v>1892</v>
       </c>
       <c r="V11">
-        <v>99.3421052631579</v>
+        <v>98.85057471264368</v>
       </c>
       <c r="W11">
-        <v>27.54966887417218</v>
+        <v>37.10359408033826</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1487,16 +1487,16 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
         <v>81</v>
@@ -1511,43 +1511,43 @@
         <v>85</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M12" t="s">
         <v>86</v>
       </c>
       <c r="N12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O12" t="s">
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R12">
-        <v>715</v>
+        <v>1949</v>
       </c>
       <c r="S12">
-        <v>502</v>
+        <v>1292</v>
       </c>
       <c r="T12">
-        <v>210</v>
+        <v>637</v>
       </c>
       <c r="U12">
-        <v>712</v>
+        <v>1929</v>
       </c>
       <c r="V12">
-        <v>99.58041958041957</v>
+        <v>98.97383273473577</v>
       </c>
       <c r="W12">
-        <v>29.49438202247191</v>
+        <v>33.02229134266459</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1558,16 +1558,16 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
         <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
         <v>82</v>
@@ -1582,43 +1582,43 @@
         <v>85</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M13" t="s">
         <v>86</v>
       </c>
       <c r="N13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O13" t="s">
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>1818</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>1189</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>612</v>
       </c>
       <c r="U13">
-        <v>4</v>
+        <v>1801</v>
       </c>
       <c r="V13">
-        <v>100</v>
+        <v>99.06490649064907</v>
       </c>
       <c r="W13">
-        <v>25</v>
+        <v>33.9811215991116</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1629,10 +1629,10 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>67</v>
@@ -1641,7 +1641,7 @@
         <v>69</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
@@ -1653,10 +1653,10 @@
         <v>85</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M14" t="s">
         <v>86</v>
@@ -1665,7 +1665,7 @@
         <v>88</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="P14" t="s">
         <v>103</v>
@@ -1674,22 +1674,22 @@
         <v>106</v>
       </c>
       <c r="R14">
-        <v>579</v>
+        <v>783</v>
       </c>
       <c r="S14">
-        <v>297</v>
+        <v>458</v>
       </c>
       <c r="T14">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="U14">
-        <v>572</v>
+        <v>778</v>
       </c>
       <c r="V14">
-        <v>98.79101899827289</v>
+        <v>99.36143039591315</v>
       </c>
       <c r="W14">
-        <v>48.07692307692308</v>
+        <v>41.13110539845758</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1700,19 +1700,19 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
         <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
@@ -1724,43 +1724,43 @@
         <v>85</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15" t="s">
         <v>86</v>
       </c>
       <c r="N15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R15">
-        <v>758</v>
+        <v>578</v>
       </c>
       <c r="S15">
-        <v>546</v>
+        <v>297</v>
       </c>
       <c r="T15">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="U15">
-        <v>752</v>
+        <v>571</v>
       </c>
       <c r="V15">
-        <v>99.20844327176781</v>
+        <v>98.78892733564014</v>
       </c>
       <c r="W15">
-        <v>27.39361702127659</v>
+        <v>47.98598949211909</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1771,67 +1771,67 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16">
         <v>4</v>
       </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
       <c r="M16" t="s">
         <v>86</v>
       </c>
       <c r="N16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O16" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R16">
-        <v>714</v>
+        <v>779</v>
       </c>
       <c r="S16">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="T16">
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="U16">
-        <v>711</v>
+        <v>770</v>
       </c>
       <c r="V16">
-        <v>99.57983193277312</v>
+        <v>98.84467265725289</v>
       </c>
       <c r="W16">
-        <v>29.53586497890295</v>
+        <v>39.74025974025975</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1842,10 +1842,10 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
         <v>67</v>
@@ -1854,7 +1854,7 @@
         <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
@@ -1866,10 +1866,10 @@
         <v>85</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17" t="s">
         <v>86</v>
@@ -1878,7 +1878,7 @@
         <v>88</v>
       </c>
       <c r="O17" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="P17" t="s">
         <v>103</v>
@@ -1887,22 +1887,22 @@
         <v>106</v>
       </c>
       <c r="R17">
-        <v>4</v>
+        <v>739</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>554</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="U17">
-        <v>4</v>
+        <v>734</v>
       </c>
       <c r="V17">
-        <v>100</v>
+        <v>99.3234100135318</v>
       </c>
       <c r="W17">
-        <v>25</v>
+        <v>24.52316076294278</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1913,7 +1913,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1922,10 +1922,10 @@
         <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
@@ -1937,43 +1937,43 @@
         <v>85</v>
       </c>
       <c r="K18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" t="s">
         <v>86</v>
       </c>
       <c r="N18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R18">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="S18">
-        <v>736</v>
+        <v>547</v>
       </c>
       <c r="T18">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="U18">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="V18">
-        <v>99.48320413436691</v>
+        <v>99.34123847167325</v>
       </c>
       <c r="W18">
-        <v>4.415584415584416</v>
+        <v>27.45358090185677</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1984,19 +1984,19 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
         <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
@@ -2008,43 +2008,43 @@
         <v>85</v>
       </c>
       <c r="K19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="s">
         <v>86</v>
       </c>
       <c r="N19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R19">
-        <v>888</v>
+        <v>659</v>
       </c>
       <c r="S19">
-        <v>853</v>
+        <v>460</v>
       </c>
       <c r="T19">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="U19">
-        <v>882</v>
+        <v>650</v>
       </c>
       <c r="V19">
-        <v>99.32432432432432</v>
+        <v>98.63429438543247</v>
       </c>
       <c r="W19">
-        <v>3.287981859410431</v>
+        <v>29.23076923076923</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2067,7 +2067,7 @@
         <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
         <v>83</v>
@@ -2091,7 +2091,7 @@
         <v>88</v>
       </c>
       <c r="O20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P20" t="s">
         <v>103</v>
@@ -2100,22 +2100,22 @@
         <v>106</v>
       </c>
       <c r="R20">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="S20">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="U20">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="V20">
         <v>100</v>
       </c>
       <c r="W20">
-        <v>2.205882352941177</v>
+        <v>58.91089108910891</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2126,19 +2126,19 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
         <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
@@ -2150,43 +2150,43 @@
         <v>85</v>
       </c>
       <c r="K21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M21" t="s">
         <v>86</v>
       </c>
       <c r="N21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R21">
-        <v>887</v>
+        <v>715</v>
       </c>
       <c r="S21">
-        <v>872</v>
+        <v>502</v>
       </c>
       <c r="T21">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="U21">
-        <v>881</v>
+        <v>712</v>
       </c>
       <c r="V21">
-        <v>99.32356257046223</v>
+        <v>99.58041958041957</v>
       </c>
       <c r="W21">
-        <v>1.021566401816118</v>
+        <v>29.49438202247191</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2197,19 +2197,19 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s">
         <v>83</v>
@@ -2221,43 +2221,43 @@
         <v>85</v>
       </c>
       <c r="K22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M22" t="s">
         <v>86</v>
       </c>
       <c r="N22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R22">
-        <v>724</v>
+        <v>922</v>
       </c>
       <c r="S22">
-        <v>35</v>
+        <v>779</v>
       </c>
       <c r="T22">
-        <v>680</v>
+        <v>140</v>
       </c>
       <c r="U22">
-        <v>715</v>
+        <v>919</v>
       </c>
       <c r="V22">
-        <v>98.75690607734806</v>
+        <v>99.67462039045553</v>
       </c>
       <c r="W22">
-        <v>95.10489510489511</v>
+        <v>15.23394994559304</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2268,7 +2268,7 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2280,7 +2280,7 @@
         <v>69</v>
       </c>
       <c r="G23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s">
         <v>83</v>
@@ -2292,10 +2292,10 @@
         <v>85</v>
       </c>
       <c r="K23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M23" t="s">
         <v>86</v>
@@ -2304,7 +2304,7 @@
         <v>88</v>
       </c>
       <c r="O23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P23" t="s">
         <v>103</v>
@@ -2313,22 +2313,22 @@
         <v>106</v>
       </c>
       <c r="R23">
-        <v>738</v>
+        <v>4</v>
       </c>
       <c r="S23">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="T23">
-        <v>556</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>728</v>
+        <v>4</v>
       </c>
       <c r="V23">
-        <v>98.6449864498645</v>
+        <v>100</v>
       </c>
       <c r="W23">
-        <v>76.37362637362637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2339,67 +2339,67 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24">
+        <v>6</v>
+      </c>
+      <c r="M24" t="s">
+        <v>86</v>
+      </c>
+      <c r="N24" t="s">
+        <v>89</v>
+      </c>
+      <c r="O24" t="s">
+        <v>100</v>
+      </c>
+      <c r="P24" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>107</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
         <v>1</v>
       </c>
-      <c r="E24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" t="s">
-        <v>85</v>
-      </c>
-      <c r="K24" t="s">
-        <v>66</v>
-      </c>
-      <c r="L24">
-        <v>9</v>
-      </c>
-      <c r="M24" t="s">
-        <v>86</v>
-      </c>
-      <c r="N24" t="s">
-        <v>88</v>
-      </c>
-      <c r="O24" t="s">
-        <v>96</v>
-      </c>
-      <c r="P24" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>106</v>
-      </c>
-      <c r="R24">
-        <v>905</v>
-      </c>
-      <c r="S24">
-        <v>399</v>
-      </c>
-      <c r="T24">
-        <v>498</v>
-      </c>
       <c r="U24">
-        <v>897</v>
+        <v>4</v>
       </c>
       <c r="V24">
-        <v>99.11602209944751</v>
+        <v>100</v>
       </c>
       <c r="W24">
-        <v>55.51839464882943</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2410,7 +2410,7 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -2419,10 +2419,10 @@
         <v>67</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
         <v>83</v>
@@ -2434,43 +2434,37 @@
         <v>85</v>
       </c>
       <c r="K25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M25" t="s">
         <v>86</v>
       </c>
       <c r="N25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R25">
-        <v>1817</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>1190</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>1800</v>
-      </c>
-      <c r="V25">
-        <v>99.06439185470556</v>
-      </c>
-      <c r="W25">
-        <v>33.88888888888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2481,10 +2475,10 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>67</v>
@@ -2493,7 +2487,7 @@
         <v>70</v>
       </c>
       <c r="G26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s">
         <v>83</v>
@@ -2505,10 +2499,10 @@
         <v>85</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M26" t="s">
         <v>86</v>
@@ -2517,7 +2511,7 @@
         <v>89</v>
       </c>
       <c r="O26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P26" t="s">
         <v>104</v>
@@ -2526,22 +2520,22 @@
         <v>107</v>
       </c>
       <c r="R26">
-        <v>723</v>
+        <v>772</v>
       </c>
       <c r="S26">
-        <v>35</v>
+        <v>733</v>
       </c>
       <c r="T26">
-        <v>679</v>
+        <v>34</v>
       </c>
       <c r="U26">
-        <v>714</v>
+        <v>767</v>
       </c>
       <c r="V26">
-        <v>98.75518672199171</v>
+        <v>99.35233160621762</v>
       </c>
       <c r="W26">
-        <v>95.09803921568627</v>
+        <v>4.432855280312908</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2552,7 +2546,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2561,10 +2555,10 @@
         <v>67</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s">
         <v>83</v>
@@ -2576,43 +2570,43 @@
         <v>85</v>
       </c>
       <c r="K27" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M27" t="s">
         <v>86</v>
       </c>
       <c r="N27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O27" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R27">
-        <v>740</v>
+        <v>518</v>
       </c>
       <c r="S27">
-        <v>172</v>
+        <v>478</v>
       </c>
       <c r="T27">
-        <v>558</v>
+        <v>40</v>
       </c>
       <c r="U27">
-        <v>730</v>
+        <v>518</v>
       </c>
       <c r="V27">
-        <v>98.64864864864865</v>
+        <v>100</v>
       </c>
       <c r="W27">
-        <v>76.43835616438356</v>
+        <v>7.722007722007722</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2623,19 +2617,19 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
         <v>67</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H28" t="s">
         <v>83</v>
@@ -2647,43 +2641,43 @@
         <v>85</v>
       </c>
       <c r="K28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M28" t="s">
         <v>86</v>
       </c>
       <c r="N28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R28">
-        <v>905</v>
+        <v>746</v>
       </c>
       <c r="S28">
-        <v>399</v>
+        <v>686</v>
       </c>
       <c r="T28">
-        <v>499</v>
+        <v>50</v>
       </c>
       <c r="U28">
-        <v>898</v>
+        <v>736</v>
       </c>
       <c r="V28">
-        <v>99.22651933701657</v>
+        <v>98.65951742627345</v>
       </c>
       <c r="W28">
-        <v>55.56792873051225</v>
+        <v>6.793478260869565</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2694,7 +2688,7 @@
         <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -2706,7 +2700,7 @@
         <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s">
         <v>83</v>
@@ -2718,10 +2712,10 @@
         <v>85</v>
       </c>
       <c r="K29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M29" t="s">
         <v>86</v>
@@ -2730,7 +2724,7 @@
         <v>89</v>
       </c>
       <c r="O29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P29" t="s">
         <v>104</v>
@@ -2739,22 +2733,22 @@
         <v>107</v>
       </c>
       <c r="R29">
-        <v>1820</v>
+        <v>888</v>
       </c>
       <c r="S29">
-        <v>1191</v>
+        <v>854</v>
       </c>
       <c r="T29">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="U29">
-        <v>1803</v>
+        <v>883</v>
       </c>
       <c r="V29">
-        <v>99.06593406593407</v>
+        <v>99.43693693693693</v>
       </c>
       <c r="W29">
-        <v>33.94342762063228</v>
+        <v>3.284258210645526</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2765,19 +2759,19 @@
         <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>67</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s">
         <v>83</v>
@@ -2789,43 +2783,43 @@
         <v>85</v>
       </c>
       <c r="K30" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M30" t="s">
         <v>86</v>
       </c>
       <c r="N30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R30">
-        <v>580</v>
+        <v>774</v>
       </c>
       <c r="S30">
-        <v>298</v>
+        <v>763</v>
       </c>
       <c r="T30">
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>573</v>
+        <v>766</v>
       </c>
       <c r="V30">
-        <v>98.79310344827587</v>
+        <v>98.96640826873386</v>
       </c>
       <c r="W30">
-        <v>47.99301919720768</v>
+        <v>0.3916449086161879</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2836,19 +2830,19 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
         <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s">
         <v>83</v>
@@ -2860,43 +2854,43 @@
         <v>85</v>
       </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M31" t="s">
         <v>86</v>
       </c>
       <c r="N31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O31" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R31">
-        <v>760</v>
+        <v>603</v>
       </c>
       <c r="S31">
-        <v>548</v>
+        <v>592</v>
       </c>
       <c r="T31">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="U31">
-        <v>755</v>
+        <v>598</v>
       </c>
       <c r="V31">
-        <v>99.3421052631579</v>
+        <v>99.17081260364843</v>
       </c>
       <c r="W31">
-        <v>27.41721854304636</v>
+        <v>1.003344481605351</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2907,10 +2901,10 @@
         <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
         <v>67</v>
@@ -2919,7 +2913,7 @@
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s">
         <v>83</v>
@@ -2931,10 +2925,10 @@
         <v>85</v>
       </c>
       <c r="K32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M32" t="s">
         <v>86</v>
@@ -2943,7 +2937,7 @@
         <v>89</v>
       </c>
       <c r="O32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P32" t="s">
         <v>104</v>
@@ -2952,22 +2946,22 @@
         <v>107</v>
       </c>
       <c r="R32">
-        <v>714</v>
+        <v>137</v>
       </c>
       <c r="S32">
-        <v>501</v>
+        <v>134</v>
       </c>
       <c r="T32">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>711</v>
+        <v>137</v>
       </c>
       <c r="V32">
-        <v>99.57983193277312</v>
+        <v>100</v>
       </c>
       <c r="W32">
-        <v>29.53586497890295</v>
+        <v>2.18978102189781</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2978,19 +2972,19 @@
         <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" t="s">
         <v>67</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s">
         <v>83</v>
@@ -3002,43 +2996,43 @@
         <v>85</v>
       </c>
       <c r="K33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M33" t="s">
         <v>86</v>
       </c>
       <c r="N33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R33">
-        <v>4</v>
+        <v>721</v>
       </c>
       <c r="S33">
-        <v>3</v>
+        <v>713</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>4</v>
+        <v>715</v>
       </c>
       <c r="V33">
-        <v>100</v>
+        <v>99.16782246879335</v>
       </c>
       <c r="W33">
-        <v>25</v>
+        <v>0.2797202797202797</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3049,7 +3043,7 @@
         <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3058,10 +3052,10 @@
         <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s">
         <v>83</v>
@@ -3073,43 +3067,43 @@
         <v>85</v>
       </c>
       <c r="K34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M34" t="s">
         <v>86</v>
       </c>
       <c r="N34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O34" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R34">
-        <v>773</v>
+        <v>906</v>
       </c>
       <c r="S34">
-        <v>735</v>
+        <v>892</v>
       </c>
       <c r="T34">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="U34">
-        <v>769</v>
+        <v>901</v>
       </c>
       <c r="V34">
-        <v>99.48253557567918</v>
+        <v>99.44812362030905</v>
       </c>
       <c r="W34">
-        <v>4.421326397919375</v>
+        <v>0.9988901220865706</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3120,10 +3114,10 @@
         <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
         <v>67</v>
@@ -3132,7 +3126,7 @@
         <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s">
         <v>83</v>
@@ -3144,10 +3138,10 @@
         <v>85</v>
       </c>
       <c r="K35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M35" t="s">
         <v>86</v>
@@ -3156,7 +3150,7 @@
         <v>89</v>
       </c>
       <c r="O35" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="P35" t="s">
         <v>104</v>
@@ -3165,22 +3159,22 @@
         <v>107</v>
       </c>
       <c r="R35">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="S35">
-        <v>855</v>
+        <v>868</v>
       </c>
       <c r="T35">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="U35">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="V35">
-        <v>99.32584269662922</v>
+        <v>99.2081447963801</v>
       </c>
       <c r="W35">
-        <v>3.28054298642534</v>
+        <v>1.026225769669327</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3191,7 +3185,7 @@
         <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -3200,10 +3194,10 @@
         <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s">
         <v>83</v>
@@ -3215,43 +3209,43 @@
         <v>85</v>
       </c>
       <c r="K36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M36" t="s">
         <v>86</v>
       </c>
       <c r="N36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O36" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R36">
-        <v>136</v>
+        <v>950</v>
       </c>
       <c r="S36">
-        <v>133</v>
+        <v>944</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>136</v>
+        <v>947</v>
       </c>
       <c r="V36">
-        <v>100</v>
+        <v>99.68421052631578</v>
       </c>
       <c r="W36">
-        <v>2.205882352941177</v>
+        <v>0.3167898627243929</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3265,16 +3259,16 @@
         <v>66</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37" t="s">
         <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s">
         <v>83</v>
@@ -3295,34 +3289,34 @@
         <v>86</v>
       </c>
       <c r="N37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O37" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R37">
-        <v>887</v>
+        <v>988</v>
       </c>
       <c r="S37">
-        <v>871</v>
+        <v>978</v>
       </c>
       <c r="T37">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U37">
-        <v>880</v>
+        <v>982</v>
       </c>
       <c r="V37">
-        <v>99.2108229988726</v>
+        <v>99.39271255060729</v>
       </c>
       <c r="W37">
-        <v>1.022727272727273</v>
+        <v>0.4073319755600814</v>
       </c>
     </row>
   </sheetData>

--- a/projects/tRNAseq_third-gen/data/BC_split/sample_stats.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/sample_stats.xlsx
@@ -822,22 +822,22 @@
         <v>105</v>
       </c>
       <c r="R2">
-        <v>966</v>
+        <v>942</v>
       </c>
       <c r="S2">
         <v>38</v>
       </c>
       <c r="T2">
-        <v>925</v>
+        <v>901</v>
       </c>
       <c r="U2">
-        <v>963</v>
+        <v>939</v>
       </c>
       <c r="V2">
-        <v>99.68944099378882</v>
+        <v>99.68152866242038</v>
       </c>
       <c r="W2">
-        <v>96.0539979231568</v>
+        <v>95.95314164004259</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -893,22 +893,22 @@
         <v>106</v>
       </c>
       <c r="R3">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="S3">
         <v>14</v>
       </c>
       <c r="T3">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="U3">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="V3">
-        <v>98.52941176470588</v>
+        <v>98.36552748885586</v>
       </c>
       <c r="W3">
-        <v>97.91044776119404</v>
+        <v>97.88519637462235</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -964,22 +964,22 @@
         <v>107</v>
       </c>
       <c r="R4">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="S4">
         <v>35</v>
       </c>
       <c r="T4">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="U4">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="V4">
-        <v>98.75518672199171</v>
+        <v>98.87165021156559</v>
       </c>
       <c r="W4">
-        <v>95.09803921568627</v>
+        <v>95.00713266761768</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1035,22 +1035,22 @@
         <v>105</v>
       </c>
       <c r="R5">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T5">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="U5">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="V5">
-        <v>99.1869918699187</v>
+        <v>99.18433931484503</v>
       </c>
       <c r="W5">
-        <v>89.67213114754098</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1106,22 +1106,22 @@
         <v>106</v>
       </c>
       <c r="R6">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="S6">
         <v>198</v>
       </c>
       <c r="T6">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="U6">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="V6">
-        <v>98.80319148936169</v>
+        <v>98.79679144385027</v>
       </c>
       <c r="W6">
-        <v>73.35127860026918</v>
+        <v>73.20703653585927</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1177,22 +1177,22 @@
         <v>107</v>
       </c>
       <c r="R7">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="S7">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="T7">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="U7">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="V7">
-        <v>98.51150202976996</v>
+        <v>98.63013698630137</v>
       </c>
       <c r="W7">
-        <v>76.37362637362637</v>
+        <v>76.52777777777777</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1251,10 +1251,10 @@
         <v>199</v>
       </c>
       <c r="S8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U8">
         <v>199</v>
@@ -1263,7 +1263,7 @@
         <v>100</v>
       </c>
       <c r="W8">
-        <v>81.4070351758794</v>
+        <v>80.90452261306532</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1319,22 +1319,22 @@
         <v>106</v>
       </c>
       <c r="R9">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="S9">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T9">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="U9">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="V9">
-        <v>99.74059662775616</v>
+        <v>99.34469200524246</v>
       </c>
       <c r="W9">
-        <v>76.98309492847855</v>
+        <v>76.78100263852242</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1390,22 +1390,22 @@
         <v>107</v>
       </c>
       <c r="R10">
-        <v>905</v>
+        <v>890</v>
       </c>
       <c r="S10">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="T10">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="U10">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="V10">
-        <v>99.11602209944751</v>
+        <v>99.21348314606742</v>
       </c>
       <c r="W10">
-        <v>55.51839464882943</v>
+        <v>55.60588901472253</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1461,22 +1461,22 @@
         <v>105</v>
       </c>
       <c r="R11">
-        <v>1914</v>
+        <v>1876</v>
       </c>
       <c r="S11">
-        <v>1190</v>
+        <v>1165</v>
       </c>
       <c r="T11">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="U11">
-        <v>1892</v>
+        <v>1857</v>
       </c>
       <c r="V11">
-        <v>98.85057471264368</v>
+        <v>98.98720682302772</v>
       </c>
       <c r="W11">
-        <v>37.10359408033826</v>
+        <v>37.26440495422725</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1532,22 +1532,22 @@
         <v>106</v>
       </c>
       <c r="R12">
-        <v>1949</v>
+        <v>1922</v>
       </c>
       <c r="S12">
-        <v>1292</v>
+        <v>1269</v>
       </c>
       <c r="T12">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="U12">
-        <v>1929</v>
+        <v>1903</v>
       </c>
       <c r="V12">
-        <v>98.97383273473577</v>
+        <v>99.01144640998959</v>
       </c>
       <c r="W12">
-        <v>33.02229134266459</v>
+        <v>33.31581713084603</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1603,22 +1603,22 @@
         <v>107</v>
       </c>
       <c r="R13">
-        <v>1818</v>
+        <v>1790</v>
       </c>
       <c r="S13">
-        <v>1189</v>
+        <v>1172</v>
       </c>
       <c r="T13">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="U13">
-        <v>1801</v>
+        <v>1773</v>
       </c>
       <c r="V13">
-        <v>99.06490649064907</v>
+        <v>99.05027932960894</v>
       </c>
       <c r="W13">
-        <v>33.9811215991116</v>
+        <v>33.89734912577552</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1674,22 +1674,22 @@
         <v>106</v>
       </c>
       <c r="R14">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="S14">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="T14">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="U14">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="V14">
-        <v>99.36143039591315</v>
+        <v>99.09090909090909</v>
       </c>
       <c r="W14">
-        <v>41.13110539845758</v>
+        <v>41.02228047182175</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1745,22 +1745,22 @@
         <v>107</v>
       </c>
       <c r="R15">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="S15">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="T15">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="U15">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="V15">
-        <v>98.78892733564014</v>
+        <v>98.76543209876543</v>
       </c>
       <c r="W15">
-        <v>47.98598949211909</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1816,22 +1816,22 @@
         <v>105</v>
       </c>
       <c r="R16">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="S16">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="T16">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="U16">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="V16">
-        <v>98.84467265725289</v>
+        <v>98.82198952879581</v>
       </c>
       <c r="W16">
-        <v>39.74025974025975</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1887,22 +1887,22 @@
         <v>106</v>
       </c>
       <c r="R17">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="S17">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="T17">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U17">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="V17">
-        <v>99.3234100135318</v>
+        <v>99.18256130790191</v>
       </c>
       <c r="W17">
-        <v>24.52316076294278</v>
+        <v>24.58791208791209</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1958,22 +1958,22 @@
         <v>107</v>
       </c>
       <c r="R18">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="S18">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="T18">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="U18">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="V18">
-        <v>99.34123847167325</v>
+        <v>99.19028340080972</v>
       </c>
       <c r="W18">
-        <v>27.45358090185677</v>
+        <v>27.3469387755102</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2029,22 +2029,22 @@
         <v>105</v>
       </c>
       <c r="R19">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="S19">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="T19">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U19">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="V19">
-        <v>98.63429438543247</v>
+        <v>98.46625766871165</v>
       </c>
       <c r="W19">
-        <v>29.23076923076923</v>
+        <v>29.4392523364486</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2171,22 +2171,22 @@
         <v>107</v>
       </c>
       <c r="R21">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="S21">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="T21">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U21">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="V21">
-        <v>99.58041958041957</v>
+        <v>99.5702005730659</v>
       </c>
       <c r="W21">
-        <v>29.49438202247191</v>
+        <v>30.07194244604317</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2242,22 +2242,22 @@
         <v>105</v>
       </c>
       <c r="R22">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="S22">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="T22">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U22">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="V22">
-        <v>99.67462039045553</v>
+        <v>99.67141292442497</v>
       </c>
       <c r="W22">
-        <v>15.23394994559304</v>
+        <v>15.27472527472528</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2520,22 +2520,22 @@
         <v>107</v>
       </c>
       <c r="R26">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="S26">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="T26">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U26">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="V26">
-        <v>99.35233160621762</v>
+        <v>99.20529801324504</v>
       </c>
       <c r="W26">
-        <v>4.432855280312908</v>
+        <v>4.405874499332444</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2591,22 +2591,22 @@
         <v>105</v>
       </c>
       <c r="R27">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="S27">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="T27">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U27">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="V27">
         <v>100</v>
       </c>
       <c r="W27">
-        <v>7.722007722007722</v>
+        <v>7.662082514734774</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2662,22 +2662,22 @@
         <v>106</v>
       </c>
       <c r="R28">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="S28">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="T28">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U28">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="V28">
-        <v>98.65951742627345</v>
+        <v>98.37177747625509</v>
       </c>
       <c r="W28">
-        <v>6.793478260869565</v>
+        <v>7.03448275862069</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2733,22 +2733,22 @@
         <v>107</v>
       </c>
       <c r="R29">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="S29">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="T29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U29">
-        <v>883</v>
+        <v>866</v>
       </c>
       <c r="V29">
-        <v>99.43693693693693</v>
+        <v>99.31192660550458</v>
       </c>
       <c r="W29">
-        <v>3.284258210645526</v>
+        <v>3.233256351039261</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2804,22 +2804,22 @@
         <v>105</v>
       </c>
       <c r="R30">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="S30">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="V30">
-        <v>98.96640826873386</v>
+        <v>98.95150720838795</v>
       </c>
       <c r="W30">
-        <v>0.3916449086161879</v>
+        <v>0.1324503311258278</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2875,22 +2875,22 @@
         <v>106</v>
       </c>
       <c r="R31">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="S31">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="T31">
         <v>6</v>
       </c>
       <c r="U31">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="V31">
-        <v>99.17081260364843</v>
+        <v>99.32659932659934</v>
       </c>
       <c r="W31">
-        <v>1.003344481605351</v>
+        <v>1.016949152542373</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2946,22 +2946,22 @@
         <v>107</v>
       </c>
       <c r="R32">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S32">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="U32">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V32">
         <v>100</v>
       </c>
       <c r="W32">
-        <v>2.18978102189781</v>
+        <v>2.205882352941177</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3017,22 +3017,22 @@
         <v>105</v>
       </c>
       <c r="R33">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="S33">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="T33">
         <v>2</v>
       </c>
       <c r="U33">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="V33">
-        <v>99.16782246879335</v>
+        <v>99.15134370579915</v>
       </c>
       <c r="W33">
-        <v>0.2797202797202797</v>
+        <v>0.2853067047075606</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3088,22 +3088,22 @@
         <v>106</v>
       </c>
       <c r="R34">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="S34">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="T34">
         <v>9</v>
       </c>
       <c r="U34">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="V34">
-        <v>99.44812362030905</v>
+        <v>99.44258639910814</v>
       </c>
       <c r="W34">
-        <v>0.9988901220865706</v>
+        <v>1.008968609865471</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3159,22 +3159,22 @@
         <v>107</v>
       </c>
       <c r="R35">
-        <v>884</v>
+        <v>859</v>
       </c>
       <c r="S35">
-        <v>868</v>
+        <v>843</v>
       </c>
       <c r="T35">
         <v>9</v>
       </c>
       <c r="U35">
-        <v>877</v>
+        <v>852</v>
       </c>
       <c r="V35">
-        <v>99.2081447963801</v>
+        <v>99.18509895227008</v>
       </c>
       <c r="W35">
-        <v>1.026225769669327</v>
+        <v>1.056338028169014</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3230,22 +3230,22 @@
         <v>105</v>
       </c>
       <c r="R36">
-        <v>950</v>
+        <v>926</v>
       </c>
       <c r="S36">
-        <v>944</v>
+        <v>920</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>947</v>
+        <v>923</v>
       </c>
       <c r="V36">
-        <v>99.68421052631578</v>
+        <v>99.67602591792657</v>
       </c>
       <c r="W36">
-        <v>0.3167898627243929</v>
+        <v>0.3250270855904659</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3301,22 +3301,22 @@
         <v>106</v>
       </c>
       <c r="R37">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="S37">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="T37">
         <v>4</v>
       </c>
       <c r="U37">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="V37">
-        <v>99.39271255060729</v>
+        <v>99.2835209825998</v>
       </c>
       <c r="W37">
-        <v>0.4073319755600814</v>
+        <v>0.4123711340206186</v>
       </c>
     </row>
   </sheetData>

--- a/projects/tRNAseq_third-gen/data/BC_split/sample_stats.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/sample_stats.xlsx
@@ -822,22 +822,22 @@
         <v>105</v>
       </c>
       <c r="R2">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="S2">
         <v>38</v>
       </c>
       <c r="T2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="U2">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="V2">
-        <v>99.68152866242038</v>
+        <v>99.68220338983051</v>
       </c>
       <c r="W2">
-        <v>95.95314164004259</v>
+        <v>95.96174282678001</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -893,22 +893,22 @@
         <v>106</v>
       </c>
       <c r="R3">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="S3">
         <v>14</v>
       </c>
       <c r="T3">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="U3">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="V3">
-        <v>98.36552748885586</v>
+        <v>98.22485207100591</v>
       </c>
       <c r="W3">
-        <v>97.88519637462235</v>
+        <v>97.89156626506023</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1035,22 +1035,22 @@
         <v>105</v>
       </c>
       <c r="R5">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="S5">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T5">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="U5">
         <v>608</v>
       </c>
       <c r="V5">
-        <v>99.18433931484503</v>
+        <v>99.50900163666121</v>
       </c>
       <c r="W5">
-        <v>89.47368421052632</v>
+        <v>89.63815789473685</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1109,10 +1109,10 @@
         <v>748</v>
       </c>
       <c r="S6">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T6">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="U6">
         <v>739</v>
@@ -1121,7 +1121,7 @@
         <v>98.79679144385027</v>
       </c>
       <c r="W6">
-        <v>73.20703653585927</v>
+        <v>73.34235453315291</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1177,22 +1177,22 @@
         <v>107</v>
       </c>
       <c r="R7">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="S7">
         <v>169</v>
       </c>
       <c r="T7">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U7">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="V7">
-        <v>98.63013698630137</v>
+        <v>98.62825788751715</v>
       </c>
       <c r="W7">
-        <v>76.52777777777777</v>
+        <v>76.49513212795549</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1248,22 +1248,22 @@
         <v>105</v>
       </c>
       <c r="R8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S8">
         <v>38</v>
       </c>
       <c r="T8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="U8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V8">
         <v>100</v>
       </c>
       <c r="W8">
-        <v>80.90452261306532</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1319,22 +1319,22 @@
         <v>106</v>
       </c>
       <c r="R9">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="S9">
         <v>176</v>
       </c>
       <c r="T9">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="U9">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="V9">
-        <v>99.34469200524246</v>
+        <v>99.34725848563968</v>
       </c>
       <c r="W9">
-        <v>76.78100263852242</v>
+        <v>76.87253613666229</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1390,22 +1390,22 @@
         <v>107</v>
       </c>
       <c r="R10">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="S10">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="T10">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="U10">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="V10">
-        <v>99.21348314606742</v>
+        <v>99.2152466367713</v>
       </c>
       <c r="W10">
-        <v>55.60588901472253</v>
+        <v>55.59322033898305</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1461,22 +1461,22 @@
         <v>105</v>
       </c>
       <c r="R11">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="S11">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="T11">
         <v>692</v>
       </c>
       <c r="U11">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="V11">
-        <v>98.98720682302772</v>
+        <v>98.87940234791888</v>
       </c>
       <c r="W11">
-        <v>37.26440495422725</v>
+        <v>37.34484619535888</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1535,10 +1535,10 @@
         <v>1922</v>
       </c>
       <c r="S12">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="T12">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="U12">
         <v>1903</v>
@@ -1547,7 +1547,7 @@
         <v>99.01144640998959</v>
       </c>
       <c r="W12">
-        <v>33.31581713084603</v>
+        <v>33.21071991592223</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1603,22 +1603,22 @@
         <v>107</v>
       </c>
       <c r="R13">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="S13">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="T13">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="U13">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="V13">
-        <v>99.05027932960894</v>
+        <v>99.05133928571429</v>
       </c>
       <c r="W13">
-        <v>33.89734912577552</v>
+        <v>34.02816901408451</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1674,22 +1674,22 @@
         <v>106</v>
       </c>
       <c r="R14">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="S14">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="T14">
         <v>313</v>
       </c>
       <c r="U14">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="V14">
-        <v>99.09090909090909</v>
+        <v>99.34980494148245</v>
       </c>
       <c r="W14">
-        <v>41.02228047182175</v>
+        <v>40.96858638743456</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1816,22 +1816,22 @@
         <v>105</v>
       </c>
       <c r="R16">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="S16">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="T16">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="U16">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="V16">
-        <v>98.82198952879581</v>
+        <v>98.82659713168188</v>
       </c>
       <c r="W16">
-        <v>40</v>
+        <v>40.10554089709763</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1887,22 +1887,22 @@
         <v>106</v>
       </c>
       <c r="R17">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="S17">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="T17">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U17">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="V17">
-        <v>99.18256130790191</v>
+        <v>99.04371584699454</v>
       </c>
       <c r="W17">
-        <v>24.58791208791209</v>
+        <v>24.55172413793104</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1958,22 +1958,22 @@
         <v>107</v>
       </c>
       <c r="R18">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="S18">
         <v>534</v>
       </c>
       <c r="T18">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U18">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="V18">
-        <v>99.19028340080972</v>
+        <v>99.45945945945947</v>
       </c>
       <c r="W18">
-        <v>27.3469387755102</v>
+        <v>27.44565217391304</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2032,19 +2032,19 @@
         <v>652</v>
       </c>
       <c r="S19">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="T19">
         <v>189</v>
       </c>
       <c r="U19">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="V19">
-        <v>98.46625766871165</v>
+        <v>98.61963190184049</v>
       </c>
       <c r="W19">
-        <v>29.4392523364486</v>
+        <v>29.39346811819596</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2100,22 +2100,22 @@
         <v>106</v>
       </c>
       <c r="R20">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S20">
         <v>83</v>
       </c>
       <c r="T20">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U20">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V20">
         <v>100</v>
       </c>
       <c r="W20">
-        <v>58.91089108910891</v>
+        <v>58.70646766169154</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2171,22 +2171,22 @@
         <v>107</v>
       </c>
       <c r="R21">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="S21">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="T21">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U21">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="V21">
-        <v>99.5702005730659</v>
+        <v>99.56958393113344</v>
       </c>
       <c r="W21">
-        <v>30.07194244604317</v>
+        <v>29.82708933717579</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2242,22 +2242,22 @@
         <v>105</v>
       </c>
       <c r="R22">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="S22">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="T22">
         <v>139</v>
       </c>
       <c r="U22">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="V22">
-        <v>99.67141292442497</v>
+        <v>99.67105263157895</v>
       </c>
       <c r="W22">
-        <v>15.27472527472528</v>
+        <v>15.29152915291529</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2520,22 +2520,22 @@
         <v>107</v>
       </c>
       <c r="R26">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="S26">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="T26">
         <v>33</v>
       </c>
       <c r="U26">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="V26">
-        <v>99.20529801324504</v>
+        <v>99.20634920634922</v>
       </c>
       <c r="W26">
-        <v>4.405874499332444</v>
+        <v>4.399999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2662,22 +2662,22 @@
         <v>106</v>
       </c>
       <c r="R28">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="S28">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="T28">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U28">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="V28">
-        <v>98.37177747625509</v>
+        <v>98.64130434782609</v>
       </c>
       <c r="W28">
-        <v>7.03448275862069</v>
+        <v>6.887052341597796</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2733,22 +2733,22 @@
         <v>107</v>
       </c>
       <c r="R29">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="S29">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="T29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U29">
         <v>866</v>
       </c>
       <c r="V29">
-        <v>99.31192660550458</v>
+        <v>99.19816723940436</v>
       </c>
       <c r="W29">
-        <v>3.233256351039261</v>
+        <v>3.348729792147806</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2804,7 +2804,7 @@
         <v>105</v>
       </c>
       <c r="R30">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S30">
         <v>754</v>
@@ -2816,7 +2816,7 @@
         <v>755</v>
       </c>
       <c r="V30">
-        <v>98.95150720838795</v>
+        <v>99.08136482939632</v>
       </c>
       <c r="W30">
         <v>0.1324503311258278</v>
@@ -2875,22 +2875,22 @@
         <v>106</v>
       </c>
       <c r="R31">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="S31">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="T31">
         <v>6</v>
       </c>
       <c r="U31">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="V31">
-        <v>99.32659932659934</v>
+        <v>99.32546374367622</v>
       </c>
       <c r="W31">
-        <v>1.016949152542373</v>
+        <v>1.01867572156197</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3017,22 +3017,22 @@
         <v>105</v>
       </c>
       <c r="R33">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="S33">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T33">
         <v>2</v>
       </c>
       <c r="U33">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="V33">
-        <v>99.15134370579915</v>
+        <v>99.15014164305948</v>
       </c>
       <c r="W33">
-        <v>0.2853067047075606</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3088,22 +3088,22 @@
         <v>106</v>
       </c>
       <c r="R34">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="S34">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="T34">
         <v>9</v>
       </c>
       <c r="U34">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="V34">
-        <v>99.44258639910814</v>
+        <v>99.44320712694878</v>
       </c>
       <c r="W34">
-        <v>1.008968609865471</v>
+        <v>1.007838745800672</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3159,22 +3159,22 @@
         <v>107</v>
       </c>
       <c r="R35">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="S35">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="T35">
         <v>9</v>
       </c>
       <c r="U35">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="V35">
-        <v>99.18509895227008</v>
+        <v>99.1869918699187</v>
       </c>
       <c r="W35">
-        <v>1.056338028169014</v>
+        <v>1.053864168618267</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3230,22 +3230,22 @@
         <v>105</v>
       </c>
       <c r="R36">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="S36">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="V36">
-        <v>99.67602591792657</v>
+        <v>99.67637540453075</v>
       </c>
       <c r="W36">
-        <v>0.3250270855904659</v>
+        <v>0.3246753246753247</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3301,22 +3301,22 @@
         <v>106</v>
       </c>
       <c r="R37">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="S37">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="T37">
         <v>4</v>
       </c>
       <c r="U37">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="V37">
-        <v>99.2835209825998</v>
+        <v>99.38712972420838</v>
       </c>
       <c r="W37">
-        <v>0.4123711340206186</v>
+        <v>0.4110996916752312</v>
       </c>
     </row>
   </sheetData>

--- a/projects/tRNAseq_third-gen/data/BC_split/sample_stats.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/sample_stats.xlsx
@@ -822,22 +822,22 @@
         <v>105</v>
       </c>
       <c r="R2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="S2">
         <v>38</v>
       </c>
       <c r="T2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="U2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="V2">
-        <v>99.68220338983051</v>
+        <v>99.68186638388123</v>
       </c>
       <c r="W2">
-        <v>95.96174282678001</v>
+        <v>95.95744680851064</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -893,22 +893,22 @@
         <v>106</v>
       </c>
       <c r="R3">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="S3">
         <v>14</v>
       </c>
       <c r="T3">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="U3">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="V3">
-        <v>98.22485207100591</v>
+        <v>98.66071428571429</v>
       </c>
       <c r="W3">
-        <v>97.89156626506023</v>
+        <v>97.88838612368023</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1035,7 +1035,7 @@
         <v>105</v>
       </c>
       <c r="R5">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="S5">
         <v>63</v>
@@ -1047,7 +1047,7 @@
         <v>608</v>
       </c>
       <c r="V5">
-        <v>99.50900163666121</v>
+        <v>99.34640522875817</v>
       </c>
       <c r="W5">
         <v>89.63815789473685</v>
@@ -1106,22 +1106,22 @@
         <v>106</v>
       </c>
       <c r="R6">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="S6">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T6">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="U6">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="V6">
-        <v>98.79679144385027</v>
+        <v>98.93190921228305</v>
       </c>
       <c r="W6">
-        <v>73.34235453315291</v>
+        <v>73.27935222672065</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1248,22 +1248,22 @@
         <v>105</v>
       </c>
       <c r="R8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T8">
         <v>162</v>
       </c>
       <c r="U8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V8">
         <v>100</v>
       </c>
       <c r="W8">
-        <v>81</v>
+        <v>81.4070351758794</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1319,22 +1319,22 @@
         <v>106</v>
       </c>
       <c r="R9">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="S9">
         <v>176</v>
       </c>
       <c r="T9">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="U9">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="V9">
-        <v>99.34725848563968</v>
+        <v>99.34469200524246</v>
       </c>
       <c r="W9">
-        <v>76.87253613666229</v>
+        <v>76.78100263852242</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1393,10 +1393,10 @@
         <v>892</v>
       </c>
       <c r="S10">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="T10">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="U10">
         <v>885</v>
@@ -1405,7 +1405,7 @@
         <v>99.2152466367713</v>
       </c>
       <c r="W10">
-        <v>55.59322033898305</v>
+        <v>55.70621468926553</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1461,22 +1461,22 @@
         <v>105</v>
       </c>
       <c r="R11">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="S11">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="T11">
         <v>692</v>
       </c>
       <c r="U11">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="V11">
-        <v>98.87940234791888</v>
+        <v>98.98558462359851</v>
       </c>
       <c r="W11">
-        <v>37.34484619535888</v>
+        <v>37.32470334412082</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1535,19 +1535,19 @@
         <v>1922</v>
       </c>
       <c r="S12">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="T12">
         <v>632</v>
       </c>
       <c r="U12">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="V12">
-        <v>99.01144640998959</v>
+        <v>99.06347554630594</v>
       </c>
       <c r="W12">
-        <v>33.21071991592223</v>
+        <v>33.19327731092437</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1603,22 +1603,22 @@
         <v>107</v>
       </c>
       <c r="R13">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="S13">
         <v>1171</v>
       </c>
       <c r="T13">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="U13">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="V13">
-        <v>99.05133928571429</v>
+        <v>99.04974846282839</v>
       </c>
       <c r="W13">
-        <v>34.02816901408451</v>
+        <v>33.91647855530474</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1677,10 +1677,10 @@
         <v>769</v>
       </c>
       <c r="S14">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T14">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="U14">
         <v>764</v>
@@ -1689,7 +1689,7 @@
         <v>99.34980494148245</v>
       </c>
       <c r="W14">
-        <v>40.96858638743456</v>
+        <v>41.09947643979058</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1745,22 +1745,22 @@
         <v>107</v>
       </c>
       <c r="R15">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="S15">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T15">
         <v>266</v>
       </c>
       <c r="U15">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="V15">
-        <v>98.76543209876543</v>
+        <v>98.76760563380282</v>
       </c>
       <c r="W15">
-        <v>47.5</v>
+        <v>47.41532976827095</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1816,22 +1816,22 @@
         <v>105</v>
       </c>
       <c r="R16">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="S16">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T16">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="U16">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="V16">
-        <v>98.82659713168188</v>
+        <v>98.68938401048493</v>
       </c>
       <c r="W16">
-        <v>40.10554089709763</v>
+        <v>39.8406374501992</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1961,19 +1961,19 @@
         <v>740</v>
       </c>
       <c r="S18">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="T18">
         <v>202</v>
       </c>
       <c r="U18">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="V18">
-        <v>99.45945945945947</v>
+        <v>99.32432432432432</v>
       </c>
       <c r="W18">
-        <v>27.44565217391304</v>
+        <v>27.48299319727891</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2029,22 +2029,22 @@
         <v>105</v>
       </c>
       <c r="R19">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="S19">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T19">
         <v>189</v>
       </c>
       <c r="U19">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="V19">
-        <v>98.61963190184049</v>
+        <v>98.46390168970814</v>
       </c>
       <c r="W19">
-        <v>29.39346811819596</v>
+        <v>29.48517940717629</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2171,22 +2171,22 @@
         <v>107</v>
       </c>
       <c r="R21">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="S21">
         <v>487</v>
       </c>
       <c r="T21">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U21">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="V21">
-        <v>99.56958393113344</v>
+        <v>99.5702005730659</v>
       </c>
       <c r="W21">
-        <v>29.82708933717579</v>
+        <v>29.92805755395683</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2242,22 +2242,22 @@
         <v>105</v>
       </c>
       <c r="R22">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="S22">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="T22">
         <v>139</v>
       </c>
       <c r="U22">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="V22">
-        <v>99.67105263157895</v>
+        <v>99.67141292442497</v>
       </c>
       <c r="W22">
-        <v>15.29152915291529</v>
+        <v>15.27472527472528</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2520,22 +2520,22 @@
         <v>107</v>
       </c>
       <c r="R26">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="S26">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="T26">
         <v>33</v>
       </c>
       <c r="U26">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V26">
-        <v>99.20634920634922</v>
+        <v>99.3368700265252</v>
       </c>
       <c r="W26">
-        <v>4.399999999999999</v>
+        <v>4.405874499332444</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2733,22 +2733,22 @@
         <v>107</v>
       </c>
       <c r="R29">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="S29">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="T29">
         <v>29</v>
       </c>
       <c r="U29">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="V29">
-        <v>99.19816723940436</v>
+        <v>99.19724770642202</v>
       </c>
       <c r="W29">
-        <v>3.348729792147806</v>
+        <v>3.352601156069364</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2804,22 +2804,22 @@
         <v>105</v>
       </c>
       <c r="R30">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="S30">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="T30">
         <v>1</v>
       </c>
       <c r="U30">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="V30">
-        <v>99.08136482939632</v>
+        <v>99.08376963350786</v>
       </c>
       <c r="W30">
-        <v>0.1324503311258278</v>
+        <v>0.1321003963011889</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2875,22 +2875,22 @@
         <v>106</v>
       </c>
       <c r="R31">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="S31">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="T31">
         <v>6</v>
       </c>
       <c r="U31">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V31">
-        <v>99.32546374367622</v>
+        <v>99.32659932659934</v>
       </c>
       <c r="W31">
-        <v>1.01867572156197</v>
+        <v>1.016949152542373</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3017,22 +3017,22 @@
         <v>105</v>
       </c>
       <c r="R33">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="S33">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="T33">
         <v>2</v>
       </c>
       <c r="U33">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="V33">
-        <v>99.15014164305948</v>
+        <v>99.14772727272727</v>
       </c>
       <c r="W33">
-        <v>0.2857142857142857</v>
+        <v>0.2865329512893983</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3088,22 +3088,22 @@
         <v>106</v>
       </c>
       <c r="R34">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="S34">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="T34">
         <v>9</v>
       </c>
       <c r="U34">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="V34">
-        <v>99.44320712694878</v>
+        <v>99.44258639910814</v>
       </c>
       <c r="W34">
-        <v>1.007838745800672</v>
+        <v>1.008968609865471</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3159,22 +3159,22 @@
         <v>107</v>
       </c>
       <c r="R35">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="S35">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="T35">
         <v>9</v>
       </c>
       <c r="U35">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="V35">
-        <v>99.1869918699187</v>
+        <v>99.30151338766007</v>
       </c>
       <c r="W35">
-        <v>1.053864168618267</v>
+        <v>1.055099648300117</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3230,22 +3230,22 @@
         <v>105</v>
       </c>
       <c r="R36">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="S36">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="V36">
-        <v>99.67637540453075</v>
+        <v>99.67602591792657</v>
       </c>
       <c r="W36">
-        <v>0.3246753246753247</v>
+        <v>0.3250270855904659</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3301,22 +3301,22 @@
         <v>106</v>
       </c>
       <c r="R37">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="S37">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="T37">
         <v>4</v>
       </c>
       <c r="U37">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="V37">
-        <v>99.38712972420838</v>
+        <v>99.38650306748467</v>
       </c>
       <c r="W37">
-        <v>0.4110996916752312</v>
+        <v>0.411522633744856</v>
       </c>
     </row>
   </sheetData>
